--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სამცხე-ჯავახეთი/ნინოწმინდა.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სამცხე-ჯავახეთი/ნინოწმინდა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\2 სასტუმროების რაოდენობა &amp; ფართობი\სამცხე - ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2 სასტუმროების რაოდენობა &amp; ფართობი\სამცხე - ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
-  <si>
-    <t>−</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>რაოდენობა</t>
   </si>
@@ -36,6 +33,29 @@
   </si>
   <si>
     <t>ფართობი კვ.მ.</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ მონაცემი არ არის ან კონფიდენციალურია</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -46,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +104,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -157,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,14 +240,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -500,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,21 +544,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -559,40 +592,40 @@
     </row>
     <row r="2" spans="1:43" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="18">
+      <c r="B2" s="21">
         <v>2010</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>2011</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>2012</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>2013</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>2014</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>2015</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>2016</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>2017</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>2018</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>2019</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>2020</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>2021</v>
       </c>
       <c r="N2" s="9"/>
@@ -628,25 +661,25 @@
     </row>
     <row r="3" spans="1:43" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -661,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
         <v>5</v>
@@ -699,25 +732,25 @@
     </row>
     <row r="4" spans="1:43" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="14">
         <v>250</v>
@@ -732,7 +765,7 @@
         <v>250</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="14">
         <v>818</v>
@@ -768,8 +801,10 @@
       <c r="AP4" s="16"/>
       <c r="AQ4" s="16"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:43" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>

--- a/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სამცხე-ჯავახეთი/ნინოწმინდა.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების რაოდენობა და ფართობი/სამცხე-ჯავახეთი/ნინოწმინდა.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2 სასტუმროების რაოდენობა &amp; ფართობი\სამცხე - ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროების რაოდენობა და ფართობი\სასტუმროების რაოდენობა &amp; ფართობი\სამცხე - ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F90CDA-CF64-4E4F-80BA-5CCEC18C8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="11805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ნინოწმინდა" sheetId="2" r:id="rId1"/>
@@ -30,9 +31,6 @@
   </si>
   <si>
     <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებების რაოდენობა და მთლიანი ფართობი ადგილობრივი ერთეულების ჩათვლით ნინოწმინდის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>ფართობი კვ.მ.</t>
   </si>
   <si>
     <t>...</t>
@@ -57,11 +55,14 @@
       <t xml:space="preserve"> „ ...“ მონაცემი არ არის ან კონფიდენციალურია</t>
     </r>
   </si>
+  <si>
+    <t>ფართობი, კვ.მ.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
@@ -134,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,12 +185,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,16 +214,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -222,40 +226,37 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -540,25 +541,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" customWidth="1"/>
+    <col min="2" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -590,96 +591,100 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="21">
+    <row r="2" spans="1:43" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="15">
         <v>2010</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="12">
         <v>2011</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>2012</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="12">
         <v>2013</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>2014</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="12">
         <v>2015</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="12">
         <v>2016</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="12">
         <v>2017</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="12">
         <v>2018</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="12">
         <v>2019</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="12">
         <v>2020</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="12">
         <v>2021</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-    </row>
-    <row r="3" spans="1:43" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="12">
+        <v>2023</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+    </row>
+    <row r="3" spans="1:43" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -694,116 +699,124 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
         <v>5</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-    </row>
-    <row r="4" spans="1:43" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+    </row>
+    <row r="4" spans="1:43" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>250</v>
+      </c>
+      <c r="I4" s="18">
+        <v>250</v>
+      </c>
+      <c r="J4" s="18">
+        <v>250</v>
+      </c>
+      <c r="K4" s="18">
+        <v>250</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>818</v>
+      </c>
+      <c r="N4" s="18">
+        <v>670</v>
+      </c>
+      <c r="O4" s="18">
+        <v>670</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+    </row>
+    <row r="5" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14">
-        <v>250</v>
-      </c>
-      <c r="I4" s="14">
-        <v>250</v>
-      </c>
-      <c r="J4" s="14">
-        <v>250</v>
-      </c>
-      <c r="K4" s="14">
-        <v>250</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="14">
-        <v>818</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-    </row>
-    <row r="5" spans="1:43" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
